--- a/data/usn.xlsx
+++ b/data/usn.xlsx
@@ -16,12 +16,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,87 +30,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,6 +60,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -154,21 +123,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,187 +183,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,41 +374,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,6 +392,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -445,15 +412,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +434,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -484,148 +477,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -960,17 +953,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1234</v>
+        <v>90124</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1234</v>
+        <v>140369</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1234</v>
+        <v>90152</v>
       </c>
     </row>
   </sheetData>

--- a/data/usn.xlsx
+++ b/data/usn.xlsx
@@ -16,9 +16,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -30,6 +30,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -38,7 +54,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -46,9 +93,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -60,32 +107,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,14 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -123,6 +138,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -146,29 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,49 +183,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,31 +327,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,97 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,8 +395,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,6 +412,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,160 +474,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -943,13 +943,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
@@ -966,6 +966,11 @@
         <v>90152</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>100212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/usn.xlsx
+++ b/data/usn.xlsx
@@ -30,9 +30,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -40,21 +83,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,37 +92,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,7 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,6 +127,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -137,6 +143,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -144,16 +158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,14 +168,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,37 +183,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,145 +339,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,26 +377,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,6 +410,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -436,15 +430,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,6 +449,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -477,7 +477,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -498,127 +498,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -946,7 +946,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
